--- a/biology/Médecine/Liste_d'éponymes_utilisés_en_anatomie_humaine/Liste_d'éponymes_utilisés_en_anatomie_humaine.xlsx
+++ b/biology/Médecine/Liste_d'éponymes_utilisés_en_anatomie_humaine/Liste_d'éponymes_utilisés_en_anatomie_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page liste les éponymes utilisés en anatomie humaine.
 Sommaire :
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Achille, tendon d' : Tendon calcanéen - Achille
 Adam, Pomme d' : Proéminence laryngée - Adam
@@ -553,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +585,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baréty, loge de : Espace pré-trachéal droit - Alexandre Baréty (1844 - 1918)
 Bartholin, glande de : Glande vestibulaire majeure - Caspar Bartholin le jeune (1655 - 1738)
@@ -589,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,7 +623,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calot, triangle de : Triangle hépatobiliaire - François Calot (1861 - 1944)
 Charles Bell, nerf de : Nerf thoracique long - Charles Bell (1774 - 1842)
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,7 +661,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Darwin, tubercule de : Tubercule auriculaire - Charles Darwin (1809 - 1882)
 Dénucé, ligament de : Ligament carré - Paul Dénucé (1824 - 1889)
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +695,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Eckhard, nerf érecteur d' : Nerf érecteur - Conrad Eckhard (1822 - 1905)
 Edinger-Westphal, noyau d' : Noyau oculomoteur accessoire - Ludwig Edinger (1855 - 1918) / Carl Westphal (1833 - 1890)
@@ -690,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,7 +730,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fallope, trompe de : Trompe utérine - Gabriel Fallope (1523 - 1562)
 Farrabeuf, tronc veineux de : Tronc veineux thyro-lingo-facial - Louis Hubert Farrabeuf (1841 - 1910)</t>
@@ -721,7 +745,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -739,7 +763,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gasser, ganglion de : Ganglion trigéminal - Johann Laurentius Gasser (1723 - 1765)
 Gerdy, tubercule de : Tubercule infra-condylaire - Pierre Nicolas Gerdy (1797 - 1856)
@@ -755,7 +781,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -773,7 +799,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hartmann, poche de : Henri Hubert Vadim Hartmann
 Heschl, gyrus de : Gyrus temporal transverse - Richard Ladislaus Heschl (1824 - 1881)
@@ -791,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -810,6 +838,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -817,7 +847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -835,7 +865,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jacobson, nerf de : Nerf tympanique
 Juvara, boutonnière de</t>
@@ -848,7 +880,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -866,7 +898,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kohn, pore de : Communication inter-alvéolaire</t>
         </is>
@@ -878,7 +912,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -896,7 +930,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lallouette, lobe de : Lobe pyramidal de la thyroïde - Pierre Lalouette (1711 - 1792)
 Larrey, fente de : Trigone sterno-costal du diaphragme - Dominique-Jean Larrey (1766 - 1842)
@@ -917,7 +953,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -935,7 +971,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Magendie, foramen de : Ouverture médiane du 4ème ventricule - François Magendie (1783 - 1855)
 Malgaigne, ligne de
@@ -958,7 +996,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -976,7 +1014,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nelson, bronche de : Bronche segmentaire apicale supérieure</t>
         </is>
@@ -988,7 +1028,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1006,7 +1046,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Oddi, sphincter d' : Muscle sphincter de l'ampoule hépato-pancréatique - Ruggero Oddi (1864 - 1913)</t>
         </is>
@@ -1018,7 +1060,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1036,7 +1078,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Pacchioni, foramen de : Incisure de la tente du cervelet
 Pacchioni, granulation de : Granulations arachnoïdiennes
@@ -1053,7 +1097,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1072,6 +1116,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1079,7 +1125,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1097,7 +1143,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Ramsay - Hunt, zone de : Zone sensitive du nerf facial
 Ranvier, puits de
@@ -1112,7 +1160,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,7 +1178,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Santorini, canal de : Canal pancréatique accessoire - G. Santorini (1681 - 1737)
 Scarpa, triangle de : Trigone fémoral - Antonio Scarpa (1752 - 1832)
@@ -1150,7 +1200,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,7 +1218,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Thébésius, valvule de
 Toldt, fascia de
@@ -1183,7 +1235,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,6 +1254,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1209,7 +1263,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1227,7 +1281,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Varole, pont de : Pont du tronc cérébral - Costanzo Varolio (1543 - 1575)
 Valsalva, sinus de
@@ -1242,7 +1298,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1260,7 +1316,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Waldeyer, anneau de
 Willis, polygone de : Cercle artériel cérébral - Thomas WIllis (1621 - 1675)
@@ -1276,7 +1334,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1295,6 +1353,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1302,7 +1362,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1321,6 +1381,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1328,7 +1390,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_utilis%C3%A9s_en_anatomie_humaine</t>
+          <t>Liste_d'éponymes_utilisés_en_anatomie_humaine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1346,7 +1408,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Zuckerkandl, fascia de : Fascia rénal postérieur
 Zinn, Anneau de : Anneau tendineux commun - Johann Gottfried Zinn (1727-1759)</t>
